--- a/sample/user.xlsx
+++ b/sample/user.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\毕设——考试系统\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\savsoftquiz\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284C951-5FC0-4432-ABAE-C5566EF5E462}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A2F52-8192-4965-BB4B-636C77641B3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6955942C-5D95-48D1-B1BA-91F12473390F}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{6955942C-5D95-48D1-B1BA-91F12473390F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Password</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,10 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>123456@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0987654321@xls.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,26 +48,6 @@
   </si>
   <si>
     <t>howtodo@www.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>taylor@swift.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Taylor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Swift</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>叶铧</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00E402D1-E0D0-44BC-AD1D-BF37E080260F}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -513,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -525,7 +501,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -533,16 +509,16 @@
         <v>3</v>
       </c>
       <c r="B2" s="3">
-        <v>123456</v>
+        <v>123</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E2" s="4">
-        <v>123456789</v>
+        <v>111111111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -553,13 +529,13 @@
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4">
-        <v>111111111</v>
+        <v>123123123123</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -570,57 +546,21 @@
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" s="4">
-        <v>123123123123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="3">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4">
         <v>123123123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>123123</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="4">
-        <v>12331200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{97A23FC0-D4FB-4027-8A73-CBC9FF10D21A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{1FF7D393-7790-46F0-A44A-972EB95B1FDA}"/>
-    <hyperlink ref="A4" r:id="rId3" xr:uid="{912260F2-9739-445E-BA0F-034CA9556E66}"/>
-    <hyperlink ref="A5" r:id="rId4" xr:uid="{430B2EF6-3B32-472C-84C0-B04F8F8C2FA6}"/>
-    <hyperlink ref="A6" r:id="rId5" xr:uid="{B0352185-DA82-4230-8499-AC48B182E318}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{1FF7D393-7790-46F0-A44A-972EB95B1FDA}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{912260F2-9739-445E-BA0F-034CA9556E66}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{430B2EF6-3B32-472C-84C0-B04F8F8C2FA6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sample/user.xlsx
+++ b/sample/user.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\savsoftquiz\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7A2F52-8192-4965-BB4B-636C77641B3F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA45F4E0-59BD-4B77-8634-10B12C5CAF13}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{6955942C-5D95-48D1-B1BA-91F12473390F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6955942C-5D95-48D1-B1BA-91F12473390F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,18 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0987654321@xls.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>xiaoxiaoxiong@scut.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>howtodo@www.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +68,18 @@
   </si>
   <si>
     <t xml:space="preserve">Contact Number              联系方式          </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wangxiaoming@scut.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yangxiaohong@scut.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chenxiaowu@example.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -489,7 +489,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="141.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -501,58 +501,58 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3">
+        <v>123456</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3">
-        <v>123</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" s="4">
-        <v>111111111</v>
+        <v>1234567890</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" s="3">
         <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E3" s="4">
-        <v>123123123123</v>
+        <v>1231231231</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>123</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="4">
-        <v>123123123</v>
+        <v>1111111111</v>
       </c>
     </row>
   </sheetData>
